--- a/case/testcase.xlsx
+++ b/case/testcase.xlsx
@@ -3,11 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28785" windowHeight="12795" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28785" windowHeight="13065" tabRatio="600" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login_failed" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Select" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="登录失败" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="百度搜索" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="矩形标记" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="综合购物" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="iframe" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Select" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="elements" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="alert" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -17,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -35,9 +41,10 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
       <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -51,7 +58,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -59,80 +66,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -155,14 +88,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <i val="1"/>
       <color rgb="FF7F7F7F"/>
       <sz val="11"/>
@@ -171,9 +96,16 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
-      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,10 +117,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="38">
     <fill>
       <patternFill/>
     </fill>
@@ -203,19 +202,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAACF91"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,7 +304,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,31 +322,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,43 +352,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,73 +376,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,7 +388,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,69 +435,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -542,6 +466,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -550,10 +537,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -562,16 +549,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
@@ -580,149 +567,161 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="10">
       <alignment horizontal="center" vertical="center"/>
@@ -730,13 +729,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1156,344 +1155,344 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="5.375" customWidth="1" style="7" min="1" max="1"/>
-    <col width="13.75" customWidth="1" style="7" min="2" max="2"/>
-    <col width="10.375" customWidth="1" style="7" min="3" max="3"/>
-    <col width="24.875" customWidth="1" style="7" min="4" max="4"/>
-    <col width="60.375" customWidth="1" style="7" min="5" max="5"/>
-    <col width="35.875" customWidth="1" style="7" min="6" max="6"/>
-    <col width="9.375" customWidth="1" style="7" min="7" max="8"/>
+    <col width="9.375" customWidth="1" style="8" min="1" max="1"/>
+    <col width="15" customWidth="1" style="8" min="2" max="2"/>
+    <col width="10.375" customWidth="1" style="8" min="3" max="3"/>
+    <col width="24.875" customWidth="1" style="8" min="4" max="4"/>
+    <col width="60.375" customWidth="1" style="8" min="5" max="5"/>
+    <col width="19.125" customWidth="1" style="8" min="6" max="6"/>
+    <col width="9.375" customWidth="1" style="8" min="7" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" s="7">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>编号</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
+    <row r="1" s="8">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>执行编号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>执行操作</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>定位方法</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>定位路径</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>输入文本</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>步骤描述</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1" s="7">
-      <c r="A2" s="3" t="n">
+    <row r="2" s="8">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>创建浏览器对象</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Chrome</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>创建Chrome浏览器</t>
         </is>
       </c>
-      <c r="G2" s="3" t="n"/>
-      <c r="H2" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="13.5" customHeight="1" s="7">
-      <c r="A3" s="3" t="n">
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" s="8">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>访问</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
       <c r="E3" s="5" t="inlineStr">
         <is>
           <t>http://www.testingedu.com.cn:8000/Home/User/login.html</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>访问特斯汀电商系统</t>
         </is>
       </c>
-      <c r="G3" s="3" t="n"/>
-      <c r="H3" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="13.5" customHeight="1" s="7">
-      <c r="A4" s="3" t="n">
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" s="8">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>输入</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>username</t>
         </is>
       </c>
-      <c r="E4" s="11" t="inlineStr">
+      <c r="E4" s="15" t="inlineStr">
         <is>
           <t>807440781@qq.com</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>输入账号</t>
         </is>
       </c>
-      <c r="G4" s="3" t="n"/>
-      <c r="H4" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="13.5" customHeight="1" s="7">
-      <c r="A5" s="3" t="n">
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" s="8">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>输入</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>password</t>
         </is>
       </c>
-      <c r="E5" s="12" t="inlineStr">
+      <c r="E5" s="16" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>输入错误的密码</t>
         </is>
       </c>
-      <c r="G5" s="3" t="n"/>
-      <c r="H5" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="13.5" customHeight="1" s="7">
-      <c r="A6" s="3" t="n">
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" s="8">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>输入</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>verify_code</t>
         </is>
       </c>
-      <c r="E6" s="12" t="inlineStr">
+      <c r="E6" s="16" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>输入验证码</t>
         </is>
       </c>
-      <c r="G6" s="3" t="n"/>
-      <c r="H6" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="13.5" customHeight="1" s="7">
-      <c r="A7" s="3" t="n">
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" s="8">
+      <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>点击</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>//a[@name="sbtbutton"]</t>
         </is>
       </c>
-      <c r="E7" s="3" t="n"/>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>点击登录按钮</t>
         </is>
       </c>
-      <c r="G7" s="3" t="n"/>
-      <c r="H7" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="13.5" customHeight="1" s="7">
-      <c r="A8" s="3" t="n">
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" s="8">
+      <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>等待</t>
         </is>
       </c>
-      <c r="C8" s="3" t="n"/>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="3" t="n">
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>强制等待2秒</t>
         </is>
       </c>
-      <c r="G8" s="3" t="n"/>
-      <c r="H8" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="13.5" customHeight="1" s="7">
-      <c r="A9" s="3" t="n">
+      <c r="G8" s="2" t="n"/>
+      <c r="H8" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" s="8">
+      <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>文本断言</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>文本断言不存在</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>link text</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>安全退出</t>
         </is>
       </c>
-      <c r="E9" s="3" t="n"/>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>检查是否登录成功，存在安全退出字样</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>检查是否登录成功</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>安全退出</t>
         </is>
       </c>
-      <c r="H9" s="14" t="inlineStr">
+      <c r="H9" s="18" t="inlineStr">
         <is>
           <t>Failed</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1" s="7">
-      <c r="A10" s="3" t="n">
+    <row r="10" s="8">
+      <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>截图</t>
         </is>
       </c>
-      <c r="C10" s="3" t="n"/>
-      <c r="D10" s="3" t="n"/>
-      <c r="E10" s="3" t="inlineStr">
-        <is>
-          <t>./picture/特斯汀电商系统登录成功1.png</t>
-        </is>
-      </c>
-      <c r="F10" s="3" t="inlineStr">
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>特斯汀电商系统登录失败</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>登录成功后截图</t>
         </is>
       </c>
-      <c r="G10" s="3" t="n"/>
-      <c r="H10" s="15">
-        <f>HYPERLINK("E:\UIAutomation\picture\特斯汀电商系统登录成功1.png","Screenshot")</f>
+      <c r="G10" s="2" t="n"/>
+      <c r="H10" s="19">
+        <f>HYPERLINK("E:\UIAutomation\picture\proce_pic\特斯汀电商系统登录失败.png","Picture")</f>
         <v/>
       </c>
     </row>
@@ -1512,632 +1511,3898 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="5.375" customWidth="1" style="1" min="1" max="1"/>
-    <col width="21.25" customWidth="1" style="1" min="2" max="2"/>
-    <col width="10.375" customWidth="1" style="1" min="3" max="3"/>
-    <col width="28.25" customWidth="1" style="1" min="4" max="4"/>
-    <col width="38.25" customWidth="1" style="1" min="5" max="5"/>
-    <col width="22.125" customWidth="1" style="1" min="6" max="6"/>
-    <col width="9.375" customWidth="1" style="1" min="7" max="8"/>
-    <col width="9" customWidth="1" style="1" min="9" max="16384"/>
+    <col width="9.375" customWidth="1" style="8" min="1" max="1"/>
+    <col width="10.875" customWidth="1" style="8" min="2" max="2"/>
+    <col width="10.375" customWidth="1" style="8" min="3" max="3"/>
+    <col width="26.625" customWidth="1" style="8" min="4" max="4"/>
+    <col width="23.75" customWidth="1" style="8" min="5" max="5"/>
+    <col width="21.25" customWidth="1" style="8" min="6" max="6"/>
+    <col width="26.625" customWidth="1" style="8" min="7" max="7"/>
+    <col width="9.375" customWidth="1" style="8" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" s="7">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>编号</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
+    <row r="1" s="8">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>执行编号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>执行操作</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>定位方法</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>定位路径</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>输入文本</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>步骤描述</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
+    <row r="2" s="8">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>新建标签页</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>打开新的标签页</t>
         </is>
       </c>
-      <c r="G2" s="3" t="n"/>
-      <c r="H2" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="13.5" customHeight="1" s="7">
-      <c r="A3" s="3" t="n">
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" s="8">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>访问</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
       <c r="E3" s="5" t="inlineStr">
         <is>
+          <t>http://www.baidu.com/</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>访问百度</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" s="8">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>输入</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>kw</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>中国</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>在搜索框内输入关键词</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" s="8">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>su</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>点击百度一下按钮</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" s="8">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>等待</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>点击登录按钮</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" s="8">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>文本断言</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>link text</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>中华人民共和国 - 百度百科</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>检查搜索内容是否出现</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>中华人民共和国 - 百度百科</t>
+        </is>
+      </c>
+      <c r="H7" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" s="8">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>截图</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>百度一下搜索中国</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>搜索成功后截图</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="n"/>
+      <c r="H8" s="19">
+        <f>HYPERLINK("E:\UIAutomation\picture\proce_pic\百度一下搜索中国.png","Picture")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" s="8">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>获取URL</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>获取当前URL</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="n"/>
+      <c r="H9" s="17" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?ie=utf-8&amp;f=8&amp;rsv_bp=1&amp;rsv_idx=1&amp;tn=baidu&amp;wd=%E4%B8%AD%E5%9B%BD&amp;fenlei=256&amp;rsv_pq=b8397ee6000495f2&amp;rsv_t=c1dbcqYvq%2BT96hh4Zbtw5ktEJdQIJxnvaPRqWgeIdIrWAobNUbjy6tBUnpc&amp;rqlang=cn&amp;rsv_enter=0&amp;rsv_dl=tb&amp;rsv_sug3=2&amp;rsv_sug1=1&amp;rsv_sug7=100&amp;rsv_btype=i&amp;inputT=1118&amp;rsv_sug4=1119&amp;rsv_jmp=fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" s="8">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>获取标题</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>获取当前URL</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="n"/>
+      <c r="H10" s="17" t="inlineStr">
+        <is>
+          <t>中国_百度搜索</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" tooltip="http://www.baidu.com/" display="http://www.baidu.com/" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="22.75" defaultRowHeight="30" customHeight="1" outlineLevelCol="0"/>
+  <cols>
+    <col width="9.375" customWidth="1" style="8" min="1" max="1"/>
+    <col width="10.875" customWidth="1" style="8" min="2" max="2"/>
+    <col width="31.5" customWidth="1" style="13" min="3" max="3"/>
+    <col width="119.375" customWidth="1" style="13" min="4" max="4"/>
+    <col width="38.25" customWidth="1" style="8" min="5" max="5"/>
+    <col width="19.75" customWidth="1" style="8" min="6" max="6"/>
+    <col width="9.375" customWidth="1" style="8" min="7" max="8"/>
+    <col width="22.75" customWidth="1" style="8" min="9" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="8">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>执行编号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>执行操作</t>
+        </is>
+      </c>
+      <c r="C1" s="11" t="inlineStr">
+        <is>
+          <t>定位方法</t>
+        </is>
+      </c>
+      <c r="D1" s="11" t="inlineStr">
+        <is>
+          <t>定位路径</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>输入文本</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>步骤描述</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>预期结果</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" s="8">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>新建标签页</t>
+        </is>
+      </c>
+      <c r="C2" s="14" t="n"/>
+      <c r="D2" s="14" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>打开新的标签页</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" s="8">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>访问</t>
+        </is>
+      </c>
+      <c r="C3" s="14" t="n"/>
+      <c r="D3" s="14" t="n"/>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
           <t>http://sahitest.com/demo/index.htm</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>访问sahitest测试页</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" s="8">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>矩形标记</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>xpath,/html/body/table/tbody</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>xpath,/html/body/table/tbody/tr/td[1],xpath,//a[text()="Prompt Page"],xpath,/html/body/table/tbody/tr/td[4]</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>矩形标记</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>矩形标记多个元素</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="19">
+        <f>HYPERLINK("E:\UIAutomation\picture\proce_pic\矩形标记.png","Picture")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10" s="8">
+      <c r="E10" s="13" t="n"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" tooltip="http://sahitest.com/demo/index.htm" display="http://sahitest.com/demo/index.htm" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5" defaultRowHeight="30" customHeight="1" outlineLevelCol="0"/>
+  <cols>
+    <col width="9.375" customWidth="1" style="7" min="1" max="1"/>
+    <col width="17.125" customWidth="1" style="7" min="2" max="2"/>
+    <col width="10.375" customWidth="1" style="7" min="3" max="3"/>
+    <col width="68.25" customWidth="1" style="7" min="4" max="4"/>
+    <col width="60.375" customWidth="1" style="7" min="5" max="5"/>
+    <col width="29.625" customWidth="1" style="7" min="6" max="7"/>
+    <col width="8.625" customWidth="1" style="10" min="8" max="8"/>
+    <col width="11.5" customWidth="1" style="7" min="9" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" s="9">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>执行编号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>执行操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>定位方法</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>定位路径</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>输入文本</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>步骤描述</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>预期结果</t>
+        </is>
+      </c>
+      <c r="H1" s="11" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" s="8">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>新建标签页</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>打开新的标签页</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" s="8">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>访问</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>http://www.testingedu.com.cn:8000/Home/User/login.html</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>访问电商系统</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" s="8">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>输入</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="E4" s="15" t="inlineStr">
+        <is>
+          <t>807440781@qq.com</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>输入账号</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" s="8">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>输入</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>yk145312</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>输入密码</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" s="8">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>输入</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>verify_code</t>
+        </is>
+      </c>
+      <c r="E6" s="16" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>输入验证码</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" s="8">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>//a[@name="sbtbutton"]</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>点击登录按钮</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" s="8">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>等待</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>强制等待2秒</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="n"/>
+      <c r="H8" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" s="8">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>文本断言</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>link text</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>安全退出</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>校验登录后是否存在退出的元素</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>安全退出</t>
+        </is>
+      </c>
+      <c r="H9" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" s="8">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>截图</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>特斯汀电商系统登录成功</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>登录成功后截图</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="n"/>
+      <c r="H10" s="19">
+        <f>HYPERLINK("E:\UIAutomation\picture\proce_pic\特斯汀电商系统登录成功.png","Picture")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" s="8">
+      <c r="A11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>等待</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>强制等待2秒</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="n"/>
+      <c r="H11" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" s="8">
+      <c r="A12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>link text</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>返回商城首页</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>跳转到商城首页</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="n"/>
+      <c r="H12" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" s="8">
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>等待</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>强制等待2秒</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="n"/>
+      <c r="H13" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" s="8">
+      <c r="A14" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>鼠标悬停</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>link text</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>手机数码</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>鼠标悬停到手机数码控件树上</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="n"/>
+      <c r="H14" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" s="8">
+      <c r="A15" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>//*[@id="cata-nav"]/div[1]/div[2]/div[1]/div[2]/dl[1]/dd/a[1]</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n"/>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>点击上步骤展开后菜单中的手机</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="n"/>
+      <c r="H15" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" s="8">
+      <c r="A16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>跳转新窗口</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>跳转到新的页面</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="n"/>
+      <c r="H16" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" s="8">
+      <c r="A17" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>/html/body/div[4]/div/div[2]/div[2]/ul/li[1]/div/div[1]/a/img</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>点击第一个商品</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="n"/>
+      <c r="H17" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" s="8">
+      <c r="A18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>等待</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n"/>
+      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>强制等待2秒</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="n"/>
+      <c r="H18" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" s="8">
+      <c r="A19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>goods_spec_a_10</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>选择版本：全网通4G+64G</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="n"/>
+      <c r="H19" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" s="8">
+      <c r="A20" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>goods_spec_a_12</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>选择配色：铂光色</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="n"/>
+      <c r="H20" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" s="8">
+      <c r="A21" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>goods_spec_a_17</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>选择套餐：套餐二</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="n"/>
+      <c r="H21" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" s="8">
+      <c r="A22" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>join_cart</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>加入购物车</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="n"/>
+      <c r="H22" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" s="8">
+      <c r="A23" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>进入框架</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n"/>
+      <c r="D23" s="2" t="n"/>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>layui-layer-iframe1</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>切入弹出frame</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="n"/>
+      <c r="H23" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" s="8">
+      <c r="A24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>文本断言</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>//span[text()="添加成功"]</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>校验是否成功加入购物车</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>添加成功</t>
+        </is>
+      </c>
+      <c r="H24" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" s="8">
+      <c r="A25" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>截图</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n"/>
+      <c r="D25" s="2" t="n"/>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>商品加入购物车成功</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>商品加入购物车成功截图</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="n"/>
+      <c r="H25" s="19">
+        <f>HYPERLINK("E:\UIAutomation\picture\proce_pic\商品加入购物车成功.png","Picture")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" s="8">
+      <c r="A26" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>//a[text()="去购物车结算"]</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n"/>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>去购物车结算</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="n"/>
+      <c r="H26" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" s="8">
+      <c r="A27" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>//a[text()="去结算"]</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n"/>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>去结算</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="n"/>
+      <c r="H27" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" s="8">
+      <c r="A28" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>输入</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>//textarea[@placeholder="最多输入50个字"]</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>给辉辉买个破烂手机</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>下单备注留言</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="n"/>
+      <c r="H28" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" s="8">
+      <c r="A29" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>等待</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n"/>
+      <c r="D29" s="2" t="n"/>
+      <c r="E29" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>强制等待2秒</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="n"/>
+      <c r="H29" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" s="8">
+      <c r="A30" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>滑动滚动条至底部</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n"/>
+      <c r="D30" s="2" t="n"/>
+      <c r="E30" s="2" t="n"/>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>向下滑动</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="n"/>
+      <c r="H30" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" s="8">
+      <c r="A31" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>/html/body/div[14]/div/button</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n"/>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>提交定单</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="n"/>
+      <c r="H31" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" s="8">
+      <c r="A32" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>等待</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n"/>
+      <c r="D32" s="2" t="n"/>
+      <c r="E32" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>强制等待2秒</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="n"/>
+      <c r="H32" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" s="8">
+      <c r="A33" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>文本断言</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>//h3[text()="订单提交成功，请您尽快付款！"]</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n"/>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>校验订单提交是否成功</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>订单提交成功，请您尽快付款！</t>
+        </is>
+      </c>
+      <c r="H33" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" s="8">
+      <c r="A34" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>截图</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n"/>
+      <c r="D34" s="2" t="n"/>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>订单提交成功截图</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>订单提交成功截图</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="n"/>
+      <c r="H34" s="19">
+        <f>HYPERLINK("E:\UIAutomation\picture\proce_pic\订单提交成功截图.png","Picture")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" s="8">
+      <c r="A35" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>等待</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="n"/>
+      <c r="D35" s="2" t="n"/>
+      <c r="E35" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>强制等待2秒</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="n"/>
+      <c r="H35" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" s="8">
+      <c r="A36" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>获取URL</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n"/>
+      <c r="D36" s="2" t="n"/>
+      <c r="E36" s="2" t="n"/>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>获取当前URL</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="n"/>
+      <c r="H36" s="17" t="inlineStr">
+        <is>
+          <t>http://www.testingedu.com.cn:8000/index.php?m=Home&amp;c=Cart&amp;a=cart4&amp;order_sn=202207241459201544</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" s="8">
+      <c r="A37" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>获取标题</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="n"/>
+      <c r="D37" s="2" t="n"/>
+      <c r="E37" s="2" t="n"/>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>获取当前标题</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="n"/>
+      <c r="H37" s="17" t="inlineStr">
+        <is>
+          <t>订单支付-开源商城 | B2C商城 | B2B2C商城 | 三级分销 | 免费商城 | 多用户商城 | tpshop｜thinkphp shop｜TPshop 免费开源系统 | 微商城</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" tooltip="http://www.testingedu.com.cn:8000/Home/User/login.html" display="http://www.testingedu.com.cn:8000/Home/User/login.html" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" display="807440781@qq.com" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="0"/>
+  <cols>
+    <col width="9.375" customWidth="1" style="8" min="1" max="1"/>
+    <col width="21.25" customWidth="1" style="8" min="2" max="2"/>
+    <col width="10.375" customWidth="1" style="8" min="3" max="3"/>
+    <col width="28.25" customWidth="1" style="8" min="4" max="4"/>
+    <col width="38.25" customWidth="1" style="8" min="5" max="5"/>
+    <col width="22.125" customWidth="1" style="8" min="6" max="6"/>
+    <col width="9.375" customWidth="1" style="8" min="7" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="8">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>执行编号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>执行操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>定位方法</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>定位路径</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>输入文本</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>步骤描述</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>预期结果</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" customFormat="1" s="7">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>新建标签页</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>打开新的标签页</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" s="8">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>访问</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>http://sahitest.com/demo/index.htm</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>访问sahitest系统</t>
         </is>
       </c>
-      <c r="G3" s="3" t="n"/>
-      <c r="H3" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="13.5" customHeight="1" s="7">
-      <c r="A4" s="3" t="n">
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" s="8">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>点击</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>link text</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>Select Test</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="n"/>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>点击Select Test链接</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="n"/>
-      <c r="H4" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="13.5" customHeight="1" s="7">
-      <c r="A5" s="3" t="n">
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>IFrames Test</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>点击IFrames Test链接</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" s="8">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>等待</t>
         </is>
       </c>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="3" t="n"/>
-      <c r="E5" s="3" t="n">
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>强制等待2秒</t>
         </is>
       </c>
-      <c r="G5" s="3" t="n"/>
-      <c r="H5" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="13.5" customHeight="1" s="7">
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" s="8">
       <c r="A6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>下拉选择</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>进入框架</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>//*[@id="s1Id"]</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>第一个下拉框</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="H6" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="13.5" customHeight="1" s="7">
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>/html/body/iframe</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>切换到iframe框架1</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" s="8">
       <c r="A7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>等待</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
-      <c r="E7" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>强制等待0.5秒</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="n"/>
-      <c r="H7" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="13.5" customHeight="1" s="7">
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>/html/body/h2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>点击H2标题元素1</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" s="8">
       <c r="A8" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>下拉选择</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>xpath</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>//*[@id="s2Id"]</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>o2</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>第二个下拉框</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="H8" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="13.5" customHeight="1" s="7">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>滑动滚动条至指定码数</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>滑动滚动条至300码数</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="n"/>
+      <c r="H8" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" s="8">
       <c r="A9" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>link text</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Frames Test</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>点击Frames Test链接</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="n"/>
+      <c r="H9" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" s="8">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>截图</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>检查截图1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>校验上述动作是否完成</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="n"/>
+      <c r="H10" s="19">
+        <f>HYPERLINK("E:\UIAutomation\picture\proce_pic\检查截图1.png","Picture")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" s="8">
+      <c r="A11" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>进入框架</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>进入top框架</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="n"/>
+      <c r="H11" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" s="8">
+      <c r="A12" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>/html/body/h2</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>点击top的H2</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="n"/>
+      <c r="H12" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" s="8">
+      <c r="A13" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>滑动滚动条至指定码数</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>滑动滚动条至300码数</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="n"/>
+      <c r="H13" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" s="8">
+      <c r="A14" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>link text</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>Frames Test</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>点击Frames Test链接</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="n"/>
+      <c r="H14" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" s="8">
+      <c r="A15" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>截图</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n"/>
+      <c r="D15" s="2" t="n"/>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>检查截图2</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>校验上述动作是否完成</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="n"/>
+      <c r="H15" s="19">
+        <f>HYPERLINK("E:\UIAutomation\picture\proce_pic\检查截图2.png","Picture")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" s="8">
+      <c r="A16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>返回上层框架</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>返回默认框架</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="n"/>
+      <c r="H16" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" s="8">
+      <c r="A17" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>进入框架</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>/html/frameset/frame[2]</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>进入bom框架</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="n"/>
+      <c r="H17" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" s="8">
+      <c r="A18" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>/html/body/h2</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>点击bom的H2</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="n"/>
+      <c r="H18" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" s="8">
+      <c r="A19" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>滑动滚动条至指定码数</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n"/>
+      <c r="D19" s="2" t="n"/>
+      <c r="E19" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>滑动滚动条至300码数</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="n"/>
+      <c r="H19" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" s="8">
+      <c r="A20" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>link text</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>Frames Test</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>点击Frames Test链接</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="n"/>
+      <c r="H20" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" s="8">
+      <c r="A21" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>截图</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n"/>
+      <c r="D21" s="2" t="n"/>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>检查截图3</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>校验上述动作是否完成</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="n"/>
+      <c r="H21" s="19">
+        <f>HYPERLINK("E:\UIAutomation\picture\proce_pic\检查截图3.png","Picture")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" s="8">
+      <c r="A22" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>返回默认框架</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n"/>
+      <c r="D22" s="2" t="n"/>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>返回默认框架</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="n"/>
+      <c r="H22" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" s="8">
+      <c r="A23" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>进入框架</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>//*[@id="another"]/iframe</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n"/>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>进入bom框架</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="n"/>
+      <c r="H23" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" s="8">
+      <c r="A24" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>/html/body/h2</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>点击bom的H2</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="n"/>
+      <c r="H24" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" s="8">
+      <c r="A25" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>滑动滚动条至指定码数</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n"/>
+      <c r="D25" s="2" t="n"/>
+      <c r="E25" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>滑动滚动条至300码数</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="n"/>
+      <c r="H25" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" s="8">
+      <c r="A26" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>link text</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>Frames Test</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n"/>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>点击Frames Test链接</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="n"/>
+      <c r="H26" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" s="8">
+      <c r="A27" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>截图</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n"/>
+      <c r="D27" s="2" t="n"/>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>检查截图4</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>校验上述动作是否完成</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="n"/>
+      <c r="H27" s="19">
+        <f>HYPERLINK("E:\UIAutomation\picture\proce_pic\检查截图4.png","Picture")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" tooltip="http://sahitest.com/demo/index.htm" display="http://sahitest.com/demo/index.htm" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="0"/>
+  <cols>
+    <col width="9.375" customWidth="1" style="7" min="1" max="1"/>
+    <col width="10.875" customWidth="1" style="7" min="2" max="2"/>
+    <col width="10.375" customWidth="1" style="7" min="3" max="3"/>
+    <col width="22.625" customWidth="1" style="7" min="4" max="4"/>
+    <col width="38.25" customWidth="1" style="7" min="5" max="5"/>
+    <col width="21" customWidth="1" style="7" min="6" max="6"/>
+    <col width="9.375" customWidth="1" style="7" min="7" max="8"/>
+    <col width="9" customWidth="1" style="7" min="9" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="8">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>执行编号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>执行操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>定位方法</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>定位路径</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>输入文本</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>步骤描述</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>预期结果</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" s="8">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>新建标签页</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>打开新的标签页</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" s="8">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>访问</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>http://sahitest.com/demo/index.htm</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>访问sahitest系统</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" s="8">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>link text</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Select Test</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>点击Select Test链接</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" s="8">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>等待</t>
         </is>
       </c>
-      <c r="C9" s="3" t="n"/>
-      <c r="D9" s="3" t="n"/>
-      <c r="E9" s="3" t="n">
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>强制等待2秒</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" s="8">
+      <c r="A6" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>下拉选择</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>//*[@id="s1Id"]</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>第一个下拉框</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="H6" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" s="8">
+      <c r="A7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>等待</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="F9" s="3" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>强制等待0.5秒</t>
         </is>
       </c>
-      <c r="G9" s="3" t="n"/>
-      <c r="H9" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="13.5" customHeight="1" s="7">
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" s="8">
+      <c r="A8" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>下拉选择</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>//*[@id="s2Id"]</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>o2</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>第二个下拉框</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="H8" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" s="8">
+      <c r="A9" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>等待</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>强制等待0.5秒</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="n"/>
+      <c r="H9" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" s="8">
       <c r="A10" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>下拉选择</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>//*[@id="s3Id"]</t>
         </is>
       </c>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>o1val</t>
         </is>
       </c>
-      <c r="F10" s="3" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>第三个下拉框</t>
         </is>
       </c>
-      <c r="G10" s="3" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>value</t>
         </is>
       </c>
-      <c r="H10" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="13.5" customHeight="1" s="7">
+      <c r="H10" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" s="8">
       <c r="A11" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>等待</t>
         </is>
       </c>
-      <c r="C11" s="3" t="n"/>
-      <c r="D11" s="3" t="n"/>
-      <c r="E11" s="3" t="n">
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="F11" s="3" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>强制等待0.5秒</t>
         </is>
       </c>
-      <c r="G11" s="3" t="n"/>
-      <c r="H11" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="13.5" customHeight="1" s="7">
+      <c r="G11" s="2" t="n"/>
+      <c r="H11" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" s="8">
       <c r="A12" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>下拉选择</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>//select[@id="s4Id"]</t>
         </is>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="3" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>第四个下拉框1</t>
         </is>
       </c>
-      <c r="G12" s="3" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>index</t>
         </is>
       </c>
-      <c r="H12" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="13.5" customHeight="1" s="7">
+      <c r="H12" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" s="8">
       <c r="A13" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>等待</t>
         </is>
       </c>
-      <c r="C13" s="3" t="n"/>
-      <c r="D13" s="3" t="n"/>
-      <c r="E13" s="3" t="n">
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="F13" s="3" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>强制等待0.5秒</t>
         </is>
       </c>
-      <c r="G13" s="3" t="n"/>
-      <c r="H13" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="13.5" customHeight="1" s="7">
+      <c r="G13" s="2" t="n"/>
+      <c r="H13" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" s="8">
       <c r="A14" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>下拉选择</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>//select[@id="s4Id"]</t>
         </is>
       </c>
-      <c r="E14" s="3" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>o3</t>
         </is>
       </c>
-      <c r="F14" s="3" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>第四个下拉框2</t>
         </is>
       </c>
-      <c r="G14" s="3" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>text</t>
         </is>
       </c>
-      <c r="H14" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="13.5" customHeight="1" s="7">
+      <c r="H14" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" s="8">
       <c r="A15" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>等待</t>
         </is>
       </c>
-      <c r="C15" s="3" t="n"/>
-      <c r="D15" s="3" t="n"/>
-      <c r="E15" s="3" t="n">
+      <c r="C15" s="2" t="n"/>
+      <c r="D15" s="2" t="n"/>
+      <c r="E15" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="F15" s="3" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>强制等待0.5秒</t>
         </is>
       </c>
-      <c r="G15" s="3" t="n"/>
-      <c r="H15" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="13.5" customHeight="1" s="7">
+      <c r="G15" s="2" t="n"/>
+      <c r="H15" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" s="8">
       <c r="A16" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>下拉选择</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="D16" s="3" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>//select[@id="s4Id"]</t>
         </is>
       </c>
-      <c r="E16" s="3" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>o2val</t>
         </is>
       </c>
-      <c r="F16" s="3" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>第四个下拉框3</t>
         </is>
       </c>
-      <c r="G16" s="3" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>value</t>
         </is>
       </c>
-      <c r="H16" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="13.5" customHeight="1" s="7">
+      <c r="H16" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" s="8">
       <c r="A17" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>等待</t>
         </is>
       </c>
-      <c r="C17" s="3" t="n"/>
-      <c r="D17" s="3" t="n"/>
-      <c r="E17" s="3" t="n">
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="F17" s="3" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>强制等待0.5秒</t>
         </is>
       </c>
-      <c r="G17" s="3" t="n"/>
-      <c r="H17" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="13.5" customHeight="1" s="7">
-      <c r="A18" s="3" t="n">
+      <c r="G17" s="2" t="n"/>
+      <c r="H17" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" s="8">
+      <c r="A18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>下拉选择</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="D18" s="3" t="inlineStr">
+      <c r="D18" s="2" t="inlineStr">
         <is>
           <t>//select[@id="s1"]</t>
         </is>
       </c>
-      <c r="E18" s="3" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="F18" s="3" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>第五个下拉框</t>
         </is>
       </c>
-      <c r="G18" s="3" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>text</t>
         </is>
       </c>
-      <c r="H18" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="13.5" customHeight="1" s="7">
-      <c r="A19" s="3" t="n">
+      <c r="H18" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" s="8">
+      <c r="A19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>截图</t>
         </is>
       </c>
-      <c r="C19" s="3" t="n"/>
-      <c r="D19" s="3" t="n"/>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>./picture/select检查截图.png</t>
-        </is>
-      </c>
-      <c r="F19" s="3" t="inlineStr">
+      <c r="C19" s="2" t="n"/>
+      <c r="D19" s="2" t="n"/>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>检查下拉选择截图</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>截图存根</t>
         </is>
       </c>
-      <c r="G19" s="3" t="n"/>
-      <c r="H19" s="15">
-        <f>HYPERLINK("E:\UIAutomation\picture\select检查截图.png","Screenshot")</f>
+      <c r="G19" s="2" t="n"/>
+      <c r="H19" s="19">
+        <f>HYPERLINK("E:\UIAutomation\picture\proce_pic\检查下拉选择截图.png","Picture")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" tooltip="http://sahitest.com/demo/index.htm" display="http://sahitest.com/demo/index.htm" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelRow="6" outlineLevelCol="0"/>
+  <cols>
+    <col width="9.375" customWidth="1" style="8" min="1" max="1"/>
+    <col width="10.875" customWidth="1" style="8" min="2" max="2"/>
+    <col width="10.375" customWidth="1" style="8" min="3" max="3"/>
+    <col width="28.25" customWidth="1" style="8" min="4" max="4"/>
+    <col width="38.25" customWidth="1" style="8" min="5" max="5"/>
+    <col width="19.875" customWidth="1" style="8" min="6" max="6"/>
+    <col width="9.375" customWidth="1" style="8" min="7" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="8">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>执行编号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>执行操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>定位方法</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>定位路径</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>输入文本</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>步骤描述</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>预期结果</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" s="8">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>新建标签页</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>打开新的标签页</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" s="8">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>访问</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>http://sahitest.com/demo/index.htm</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>访问sahitest系统</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" s="8">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>link text</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Label Page</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>点击Label Page链接</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" s="8">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>等待</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>强制等待2秒</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" s="8">
+      <c r="A6" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>点击一组</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>//input[@type="checkbox"]</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>第一个下拉框</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" s="8">
+      <c r="A7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>截图</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>点击一组box中的第3个</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>截图存根</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="19">
+        <f>HYPERLINK("E:\UIAutomation\picture\proce_pic\点击一组box中的第3个.png","Picture")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" tooltip="http://sahitest.com/demo/index.htm" display="http://sahitest.com/demo/index.htm" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="0"/>
+  <cols>
+    <col width="9.375" customWidth="1" style="8" min="1" max="1"/>
+    <col width="15" customWidth="1" style="8" min="2" max="2"/>
+    <col width="10.375" customWidth="1" style="8" min="3" max="3"/>
+    <col width="27.125" customWidth="1" style="8" min="4" max="4"/>
+    <col width="38.25" customWidth="1" style="8" min="5" max="5"/>
+    <col width="36.5" customWidth="1" style="8" min="6" max="6"/>
+    <col width="9.375" customWidth="1" style="8" min="7" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="8">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>执行编号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>执行操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>定位方法</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>定位路径</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>输入文本</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>步骤描述</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>预期结果</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" s="8">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>新建标签页</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>创建Chrome浏览器</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" s="8">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>访问</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>http://sahitest.com/demo/index.htm</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>访问sahitest系统</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" s="8">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>link text</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Alert Test</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>点击Alert Test链接</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" s="8">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>清空</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>/html/body/form/input[1]</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>将输入框的预设值清空</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" s="8">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>输入</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>/html/body/form/input[1]</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>测试弹框1</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>在弹出框中输入值</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" s="8">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>/html/body/form/input[2]</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>点击Click For Alert按钮</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" s="8">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>等待</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>等待2秒</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="n"/>
+      <c r="H8" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" s="8">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>弹框断言不存在</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>alert</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="4" t="n"/>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>检查弹出框内容</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>哈哈哈</t>
+        </is>
+      </c>
+      <c r="H9" s="18" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" s="8">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>截图</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>关闭第一个alert弹出框</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>检查第一个弹出框是否关闭</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="n"/>
+      <c r="H10" s="19">
+        <f>HYPERLINK("E:\UIAutomation\picture\proce_pic\关闭第一个alert弹出框.png","Picture")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" s="8">
+      <c r="A11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>点击Click For Multiline Alert按钮</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="n"/>
+      <c r="H11" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" s="8">
+      <c r="A12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>等待</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>等待2秒</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="n"/>
+      <c r="H12" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" s="8">
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>弹框断言</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>alert</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="4" t="n"/>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>检查弹出框内容</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>You</t>
+        </is>
+      </c>
+      <c r="H13" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" s="8">
+      <c r="A14" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>b3</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>点击Click For Multiline Alert按钮</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="n"/>
+      <c r="H14" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" s="8">
+      <c r="A15" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>等待</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n"/>
+      <c r="D15" s="2" t="n"/>
+      <c r="E15" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>等待2秒</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="n"/>
+      <c r="H15" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" s="8">
+      <c r="A16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>弹框断言</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>alert</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="4" t="n"/>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>检查弹出框内容</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>Produto</t>
+        </is>
+      </c>
+      <c r="H16" s="17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" s="8">
+      <c r="A17" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>截图</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>关闭第三个alert弹出框</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>检查第三个弹出框是否关闭</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="n"/>
+      <c r="H17" s="19">
+        <f>HYPERLINK("E:\UIAutomation\picture\proce_pic\关闭第三个alert弹出框.png","Picture")</f>
         <v/>
       </c>
     </row>

--- a/case/testcase.xlsx
+++ b/case/testcase.xlsx
@@ -1800,7 +1800,7 @@
       <c r="G9" s="2" t="n"/>
       <c r="H9" s="17" t="inlineStr">
         <is>
-          <t>https://www.baidu.com/s?ie=utf-8&amp;f=8&amp;rsv_bp=1&amp;rsv_idx=1&amp;tn=baidu&amp;wd=%E4%B8%AD%E5%9B%BD&amp;fenlei=256&amp;rsv_pq=b8397ee6000495f2&amp;rsv_t=c1dbcqYvq%2BT96hh4Zbtw5ktEJdQIJxnvaPRqWgeIdIrWAobNUbjy6tBUnpc&amp;rqlang=cn&amp;rsv_enter=0&amp;rsv_dl=tb&amp;rsv_sug3=2&amp;rsv_sug1=1&amp;rsv_sug7=100&amp;rsv_btype=i&amp;inputT=1118&amp;rsv_sug4=1119&amp;rsv_jmp=fail</t>
+          <t>https://www.baidu.com/s?ie=utf-8&amp;f=8&amp;rsv_bp=1&amp;rsv_idx=1&amp;tn=baidu&amp;wd=%E4%B8%AD%E5%9B%BD&amp;fenlei=256&amp;rsv_pq=9fe1bbe200009fed&amp;rsv_t=ce69X%2FFvJ%2FX%2Fy%2BFJoI5QOOdntaOfjkCcXZ7SDMdl%2FMm67EKShruomboh2%2FPd&amp;rqlang=en&amp;rsv_enter=0&amp;rsv_dl=tb&amp;rsv_sug3=2&amp;rsv_sug1=1&amp;rsv_sug7=100&amp;rsv_btype=i&amp;inputT=1098&amp;rsv_sug4=1098&amp;rsv_jmp=fail</t>
         </is>
       </c>
     </row>
@@ -3118,7 +3118,7 @@
       <c r="G36" s="2" t="n"/>
       <c r="H36" s="17" t="inlineStr">
         <is>
-          <t>http://www.testingedu.com.cn:8000/index.php?m=Home&amp;c=Cart&amp;a=cart4&amp;order_sn=202207241459201544</t>
+          <t>http://www.testingedu.com.cn:8000/index.php?m=Home&amp;c=Cart&amp;a=cart4&amp;order_sn=202207241519015406</t>
         </is>
       </c>
     </row>

--- a/case/testcase.xlsx
+++ b/case/testcase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28785" windowHeight="13065" tabRatio="600" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28785" windowHeight="13065" tabRatio="600" firstSheet="0" activeTab="9" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="登录失败" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,6 +14,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Select" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="elements" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="alert" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="window" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="鼠标拖拽" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -23,7 +25,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -36,6 +38,13 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -74,23 +83,7 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -111,8 +104,76 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
       <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -128,58 +189,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -202,7 +211,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFAACF91"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,37 +277,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,85 +289,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,19 +307,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,6 +325,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -394,12 +379,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00AACF91"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AACF91"/>
       </patternFill>
     </fill>
     <fill>
@@ -436,7 +446,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,6 +477,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -463,15 +506,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,30 +539,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -537,10 +547,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -549,137 +559,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -689,16 +699,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -714,28 +733,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="10">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="10">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1155,21 +1168,21 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="9.375" customWidth="1" style="8" min="1" max="1"/>
-    <col width="15" customWidth="1" style="8" min="2" max="2"/>
-    <col width="10.375" customWidth="1" style="8" min="3" max="3"/>
-    <col width="24.875" customWidth="1" style="8" min="4" max="4"/>
-    <col width="60.375" customWidth="1" style="8" min="5" max="5"/>
-    <col width="19.125" customWidth="1" style="8" min="6" max="6"/>
-    <col width="9.375" customWidth="1" style="8" min="7" max="8"/>
+    <col width="9.375" customWidth="1" style="11" min="1" max="1"/>
+    <col width="15" customWidth="1" style="11" min="2" max="2"/>
+    <col width="10.375" customWidth="1" style="11" min="3" max="3"/>
+    <col width="24.875" customWidth="1" style="11" min="4" max="4"/>
+    <col width="60.375" customWidth="1" style="11" min="5" max="5"/>
+    <col width="19.125" customWidth="1" style="11" min="6" max="6"/>
+    <col width="9.375" customWidth="1" style="11" min="7" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="8">
+    <row r="1" s="11">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>执行编号</t>
@@ -1211,7 +1224,7 @@
         </is>
       </c>
     </row>
-    <row r="2" s="8">
+    <row r="2" s="11">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -1233,24 +1246,24 @@
         </is>
       </c>
       <c r="G2" s="2" t="n"/>
-      <c r="H2" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" s="8">
+      <c r="H2" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" s="11">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>访问</t>
+          <t>get</t>
         </is>
       </c>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="E3" s="8" t="inlineStr">
         <is>
           <t>http://www.testingedu.com.cn:8000/Home/User/login.html</t>
         </is>
@@ -1261,19 +1274,19 @@
         </is>
       </c>
       <c r="G3" s="2" t="n"/>
-      <c r="H3" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" s="8">
+      <c r="H3" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" s="11">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>输入</t>
+          <t>input</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -1286,7 +1299,7 @@
           <t>username</t>
         </is>
       </c>
-      <c r="E4" s="15" t="inlineStr">
+      <c r="E4" s="17" t="inlineStr">
         <is>
           <t>807440781@qq.com</t>
         </is>
@@ -1297,13 +1310,13 @@
         </is>
       </c>
       <c r="G4" s="2" t="n"/>
-      <c r="H4" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" s="8">
+      <c r="H4" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" s="11">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
@@ -1322,7 +1335,7 @@
           <t>password</t>
         </is>
       </c>
-      <c r="E5" s="16" t="inlineStr">
+      <c r="E5" s="18" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -1333,13 +1346,13 @@
         </is>
       </c>
       <c r="G5" s="2" t="n"/>
-      <c r="H5" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" s="8">
+      <c r="H5" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" s="11">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
@@ -1358,7 +1371,7 @@
           <t>verify_code</t>
         </is>
       </c>
-      <c r="E6" s="16" t="inlineStr">
+      <c r="E6" s="18" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -1369,19 +1382,19 @@
         </is>
       </c>
       <c r="G6" s="2" t="n"/>
-      <c r="H6" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" s="8">
+      <c r="H6" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" s="11">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>点击</t>
+          <t>click</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -1401,13 +1414,13 @@
         </is>
       </c>
       <c r="G7" s="2" t="n"/>
-      <c r="H7" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" s="8">
+      <c r="H7" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" s="11">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
@@ -1427,13 +1440,13 @@
         </is>
       </c>
       <c r="G8" s="2" t="n"/>
-      <c r="H8" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" s="8">
+      <c r="H8" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" s="11">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
@@ -1463,19 +1476,19 @@
           <t>安全退出</t>
         </is>
       </c>
-      <c r="H9" s="18" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" s="8">
+      <c r="H9" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" s="11">
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>截图</t>
+          <t>screenshot</t>
         </is>
       </c>
       <c r="C10" s="2" t="n"/>
@@ -1491,7 +1504,7 @@
         </is>
       </c>
       <c r="G10" s="2" t="n"/>
-      <c r="H10" s="19">
+      <c r="H10" s="20">
         <f>HYPERLINK("E:\UIAutomation\picture\proce_pic\特斯汀电商系统登录失败.png","Picture")</f>
         <v/>
       </c>
@@ -1500,6 +1513,402 @@
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" tooltip="http://www.testingedu.com.cn:8000/Home/User/login.html" display="http://www.testingedu.com.cn:8000/Home/User/login.html" r:id="rId1"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" display="807440781@qq.com" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="A1:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="0"/>
+  <cols>
+    <col width="9.375" customWidth="1" style="11" min="1" max="1"/>
+    <col width="10.875" customWidth="1" style="11" min="2" max="2"/>
+    <col width="34.875" customWidth="1" style="11" min="3" max="3"/>
+    <col width="28.25" customWidth="1" style="11" min="4" max="4"/>
+    <col width="38.25" customWidth="1" style="11" min="5" max="5"/>
+    <col width="21.25" customWidth="1" style="11" min="6" max="6"/>
+    <col width="9.375" customWidth="1" style="11" min="7" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="11">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>执行编号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>执行操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>定位方法</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>定位路径</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>输入文本</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>步骤描述</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>预期结果</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" s="11">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>新建标签页</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>新建浏览器标签页</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" s="11">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>访问</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>http://sahitest.com/demo/index.htm</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>访问sahitest系统</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" s="11">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>link text</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>Link Test</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="n"/>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>点击Link Test超链接</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" s="11">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>等待</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>等待2秒</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" s="11">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>鼠标拖拽</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>xpath,/html/body/a[9]/img</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>xpath,//*[@id="t1"]</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>将元素1拖拽到元素2</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" s="11">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>键盘输入</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>//*[@id="t1"]</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>行尾</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>将行标放在行首</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" s="11">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>鼠标拖拽</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>xpath,//*[@id="imageLink2"]/img</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>xpath,//*[@id="t1"]</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>将元素1拖拽到元素2</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="n"/>
+      <c r="H8" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" s="11">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>/html/body/a[12]/span</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>点击search超链接</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="n"/>
+      <c r="H9" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" s="11">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>等待</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>等待2秒</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="n"/>
+      <c r="H10" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" s="11">
+      <c r="A11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>关闭弹框</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>alert</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>关闭弹出框</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="n"/>
+      <c r="H11" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" s="11">
+      <c r="A12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>截图</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>拖拽后关闭弹出框截图</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>截图验证</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="n"/>
+      <c r="H12" s="20">
+        <f>HYPERLINK("E:\UIAutomation\picture\proce_pic\拖拽后关闭弹出框截图.png","Picture")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" tooltip="http://sahitest.com/demo/index.htm" display="http://sahitest.com/demo/index.htm" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1514,22 +1923,22 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="9.375" customWidth="1" style="8" min="1" max="1"/>
-    <col width="10.875" customWidth="1" style="8" min="2" max="2"/>
-    <col width="10.375" customWidth="1" style="8" min="3" max="3"/>
-    <col width="26.625" customWidth="1" style="8" min="4" max="4"/>
-    <col width="23.75" customWidth="1" style="8" min="5" max="5"/>
-    <col width="21.25" customWidth="1" style="8" min="6" max="6"/>
-    <col width="26.625" customWidth="1" style="8" min="7" max="7"/>
-    <col width="9.375" customWidth="1" style="8" min="8" max="8"/>
+    <col width="9.375" customWidth="1" style="11" min="1" max="1"/>
+    <col width="17.125" customWidth="1" style="11" min="2" max="2"/>
+    <col width="10.375" customWidth="1" style="11" min="3" max="3"/>
+    <col width="26.625" customWidth="1" style="11" min="4" max="4"/>
+    <col width="23.75" customWidth="1" style="11" min="5" max="5"/>
+    <col width="21.25" customWidth="1" style="11" min="6" max="6"/>
+    <col width="26.625" customWidth="1" style="11" min="7" max="7"/>
+    <col width="9.375" customWidth="1" style="11" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="8">
+    <row r="1" s="11">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>执行编号</t>
@@ -1571,7 +1980,7 @@
         </is>
       </c>
     </row>
-    <row r="2" s="8">
+    <row r="2" s="11">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -1589,24 +1998,24 @@
         </is>
       </c>
       <c r="G2" s="2" t="n"/>
-      <c r="H2" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" s="8">
+      <c r="H2" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" s="11">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>访问</t>
+          <t>open</t>
         </is>
       </c>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="E3" s="8" t="inlineStr">
         <is>
           <t>http://www.baidu.com/</t>
         </is>
@@ -1617,19 +2026,19 @@
         </is>
       </c>
       <c r="G3" s="2" t="n"/>
-      <c r="H3" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" s="8">
+      <c r="H3" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" s="11">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>输入</t>
+          <t>input</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -1653,19 +2062,19 @@
         </is>
       </c>
       <c r="G4" s="2" t="n"/>
-      <c r="H4" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" s="8">
+      <c r="H4" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" s="11">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>点击</t>
+          <t>click</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -1685,19 +2094,19 @@
         </is>
       </c>
       <c r="G5" s="2" t="n"/>
-      <c r="H5" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" s="8">
+      <c r="H5" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" s="11">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>等待</t>
+          <t>sleep</t>
         </is>
       </c>
       <c r="C6" s="2" t="n"/>
@@ -1711,13 +2120,13 @@
         </is>
       </c>
       <c r="G6" s="2" t="n"/>
-      <c r="H6" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" s="8">
+      <c r="H6" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" s="11">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
@@ -1747,19 +2156,19 @@
           <t>中华人民共和国 - 百度百科</t>
         </is>
       </c>
-      <c r="H7" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" s="8">
+      <c r="H7" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" s="11">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>截图</t>
+          <t>screenshot</t>
         </is>
       </c>
       <c r="C8" s="2" t="n"/>
@@ -1775,18 +2184,18 @@
         </is>
       </c>
       <c r="G8" s="2" t="n"/>
-      <c r="H8" s="19">
+      <c r="H8" s="20">
         <f>HYPERLINK("E:\UIAutomation\picture\proce_pic\百度一下搜索中国.png","Picture")</f>
         <v/>
       </c>
     </row>
-    <row r="9" s="8">
+    <row r="9" s="11">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>获取URL</t>
+          <t>current_url</t>
         </is>
       </c>
       <c r="C9" s="2" t="n"/>
@@ -1798,19 +2207,19 @@
         </is>
       </c>
       <c r="G9" s="2" t="n"/>
-      <c r="H9" s="17" t="inlineStr">
-        <is>
-          <t>https://www.baidu.com/s?ie=utf-8&amp;f=8&amp;rsv_bp=1&amp;rsv_idx=1&amp;tn=baidu&amp;wd=%E4%B8%AD%E5%9B%BD&amp;fenlei=256&amp;rsv_pq=9fe1bbe200009fed&amp;rsv_t=ce69X%2FFvJ%2FX%2Fy%2BFJoI5QOOdntaOfjkCcXZ7SDMdl%2FMm67EKShruomboh2%2FPd&amp;rqlang=en&amp;rsv_enter=0&amp;rsv_dl=tb&amp;rsv_sug3=2&amp;rsv_sug1=1&amp;rsv_sug7=100&amp;rsv_btype=i&amp;inputT=1098&amp;rsv_sug4=1098&amp;rsv_jmp=fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" s="8">
+      <c r="H9" s="19" t="inlineStr">
+        <is>
+          <t>https://www.baidu.com/s?ie=utf-8&amp;f=8&amp;rsv_bp=1&amp;rsv_idx=1&amp;tn=baidu&amp;wd=%E4%B8%AD%E5%9B%BD&amp;fenlei=256&amp;rsv_pq=fc79afa30001feac&amp;rsv_t=ffc4sQMD8G5rkyj3tWq0PGW0AkQ02LKLKM1ZY5l9OxFapHkdghnWO%2FKTjXU&amp;rqlang=cn&amp;rsv_enter=0&amp;rsv_dl=tb&amp;rsv_sug3=2&amp;rsv_sug1=1&amp;rsv_sug7=100&amp;rsv_btype=i&amp;inputT=1099&amp;rsv_sug4=1100&amp;rsv_jmp=fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" s="11">
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>获取标题</t>
+          <t>title</t>
         </is>
       </c>
       <c r="C10" s="2" t="n"/>
@@ -1822,7 +2231,7 @@
         </is>
       </c>
       <c r="G10" s="2" t="n"/>
-      <c r="H10" s="17" t="inlineStr">
+      <c r="H10" s="19" t="inlineStr">
         <is>
           <t>中国_百度搜索</t>
         </is>
@@ -1845,22 +2254,22 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="22.75" defaultRowHeight="30" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="9.375" customWidth="1" style="8" min="1" max="1"/>
-    <col width="10.875" customWidth="1" style="8" min="2" max="2"/>
-    <col width="31.5" customWidth="1" style="13" min="3" max="3"/>
-    <col width="119.375" customWidth="1" style="13" min="4" max="4"/>
-    <col width="38.25" customWidth="1" style="8" min="5" max="5"/>
-    <col width="19.75" customWidth="1" style="8" min="6" max="6"/>
-    <col width="9.375" customWidth="1" style="8" min="7" max="8"/>
-    <col width="22.75" customWidth="1" style="8" min="9" max="16384"/>
+    <col width="9.375" customWidth="1" style="11" min="1" max="1"/>
+    <col width="14.875" customWidth="1" style="11" min="2" max="2"/>
+    <col width="31.5" customWidth="1" style="16" min="3" max="3"/>
+    <col width="119.375" customWidth="1" style="16" min="4" max="4"/>
+    <col width="38.25" customWidth="1" style="11" min="5" max="5"/>
+    <col width="19.75" customWidth="1" style="11" min="6" max="6"/>
+    <col width="9.375" customWidth="1" style="11" min="7" max="8"/>
+    <col width="22.75" customWidth="1" style="11" min="9" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" s="8">
+    <row r="1" s="11">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>执行编号</t>
@@ -1871,12 +2280,12 @@
           <t>执行操作</t>
         </is>
       </c>
-      <c r="C1" s="11" t="inlineStr">
+      <c r="C1" s="14" t="inlineStr">
         <is>
           <t>定位方法</t>
         </is>
       </c>
-      <c r="D1" s="11" t="inlineStr">
+      <c r="D1" s="14" t="inlineStr">
         <is>
           <t>定位路径</t>
         </is>
@@ -1902,7 +2311,7 @@
         </is>
       </c>
     </row>
-    <row r="2" s="8">
+    <row r="2" s="11">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -1911,8 +2320,8 @@
           <t>新建标签页</t>
         </is>
       </c>
-      <c r="C2" s="14" t="n"/>
-      <c r="D2" s="14" t="n"/>
+      <c r="C2" s="5" t="n"/>
+      <c r="D2" s="5" t="n"/>
       <c r="E2" s="2" t="n"/>
       <c r="F2" s="2" t="inlineStr">
         <is>
@@ -1920,24 +2329,24 @@
         </is>
       </c>
       <c r="G2" s="2" t="n"/>
-      <c r="H2" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" s="8">
+      <c r="H2" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" s="11">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>访问</t>
-        </is>
-      </c>
-      <c r="C3" s="14" t="n"/>
-      <c r="D3" s="14" t="n"/>
-      <c r="E3" s="3" t="inlineStr">
+          <t>get</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="n"/>
+      <c r="D3" s="5" t="n"/>
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>http://sahitest.com/demo/index.htm</t>
         </is>
@@ -1948,13 +2357,13 @@
         </is>
       </c>
       <c r="G3" s="2" t="n"/>
-      <c r="H3" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" s="8">
+      <c r="H3" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" s="11">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
@@ -1984,7 +2393,7 @@
         </is>
       </c>
       <c r="G4" s="2" t="n"/>
-      <c r="H4" s="19">
+      <c r="H4" s="20">
         <f>HYPERLINK("E:\UIAutomation\picture\proce_pic\矩形标记.png","Picture")</f>
         <v/>
       </c>
@@ -1994,8 +2403,8 @@
     <row r="7"/>
     <row r="8"/>
     <row r="9"/>
-    <row r="10" s="8">
-      <c r="E10" s="13" t="n"/>
+    <row r="10" s="11">
+      <c r="E10" s="16" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2013,23 +2422,23 @@
   </sheetPr>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5" defaultRowHeight="30" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="9.375" customWidth="1" style="7" min="1" max="1"/>
-    <col width="17.125" customWidth="1" style="7" min="2" max="2"/>
-    <col width="10.375" customWidth="1" style="7" min="3" max="3"/>
-    <col width="68.25" customWidth="1" style="7" min="4" max="4"/>
-    <col width="60.375" customWidth="1" style="7" min="5" max="5"/>
-    <col width="29.625" customWidth="1" style="7" min="6" max="7"/>
-    <col width="8.625" customWidth="1" style="10" min="8" max="8"/>
-    <col width="11.5" customWidth="1" style="7" min="9" max="16384"/>
+    <col width="9.375" customWidth="1" style="10" min="1" max="1"/>
+    <col width="17.125" customWidth="1" style="10" min="2" max="2"/>
+    <col width="10.375" customWidth="1" style="10" min="3" max="3"/>
+    <col width="68.25" customWidth="1" style="10" min="4" max="4"/>
+    <col width="60.375" customWidth="1" style="10" min="5" max="5"/>
+    <col width="29.625" customWidth="1" style="10" min="6" max="7"/>
+    <col width="8.625" customWidth="1" style="13" min="8" max="8"/>
+    <col width="11.5" customWidth="1" style="10" min="9" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="9">
+    <row r="1" customFormat="1" s="12">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>执行编号</t>
@@ -2065,13 +2474,13 @@
           <t>预期结果</t>
         </is>
       </c>
-      <c r="H1" s="11" t="inlineStr">
+      <c r="H1" s="14" t="inlineStr">
         <is>
           <t>实际结果</t>
         </is>
       </c>
     </row>
-    <row r="2" s="8">
+    <row r="2" s="11">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -2089,13 +2498,13 @@
         </is>
       </c>
       <c r="G2" s="2" t="n"/>
-      <c r="H2" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" s="8">
+      <c r="H2" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" s="11">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
@@ -2106,7 +2515,7 @@
       </c>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="E3" s="8" t="inlineStr">
         <is>
           <t>http://www.testingedu.com.cn:8000/Home/User/login.html</t>
         </is>
@@ -2117,13 +2526,13 @@
         </is>
       </c>
       <c r="G3" s="2" t="n"/>
-      <c r="H3" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" s="8">
+      <c r="H3" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" s="11">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
@@ -2142,7 +2551,7 @@
           <t>username</t>
         </is>
       </c>
-      <c r="E4" s="15" t="inlineStr">
+      <c r="E4" s="17" t="inlineStr">
         <is>
           <t>807440781@qq.com</t>
         </is>
@@ -2153,13 +2562,13 @@
         </is>
       </c>
       <c r="G4" s="2" t="n"/>
-      <c r="H4" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" s="8">
+      <c r="H4" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" s="11">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
@@ -2189,13 +2598,13 @@
         </is>
       </c>
       <c r="G5" s="2" t="n"/>
-      <c r="H5" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" s="8">
+      <c r="H5" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" s="11">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
@@ -2214,7 +2623,7 @@
           <t>verify_code</t>
         </is>
       </c>
-      <c r="E6" s="16" t="inlineStr">
+      <c r="E6" s="18" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
@@ -2225,13 +2634,13 @@
         </is>
       </c>
       <c r="G6" s="2" t="n"/>
-      <c r="H6" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" s="8">
+      <c r="H6" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" s="11">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
@@ -2257,13 +2666,13 @@
         </is>
       </c>
       <c r="G7" s="2" t="n"/>
-      <c r="H7" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" s="8">
+      <c r="H7" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" s="11">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
@@ -2283,13 +2692,13 @@
         </is>
       </c>
       <c r="G8" s="2" t="n"/>
-      <c r="H8" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" s="8">
+      <c r="H8" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" s="11">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
@@ -2319,13 +2728,13 @@
           <t>安全退出</t>
         </is>
       </c>
-      <c r="H9" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" s="8">
+      <c r="H9" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" s="11">
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
@@ -2347,12 +2756,12 @@
         </is>
       </c>
       <c r="G10" s="2" t="n"/>
-      <c r="H10" s="19">
+      <c r="H10" s="20">
         <f>HYPERLINK("E:\UIAutomation\picture\proce_pic\特斯汀电商系统登录成功.png","Picture")</f>
         <v/>
       </c>
     </row>
-    <row r="11" s="8">
+    <row r="11" s="11">
       <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
@@ -2372,13 +2781,13 @@
         </is>
       </c>
       <c r="G11" s="2" t="n"/>
-      <c r="H11" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" s="8">
+      <c r="H11" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" s="11">
       <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
@@ -2404,13 +2813,13 @@
         </is>
       </c>
       <c r="G12" s="2" t="n"/>
-      <c r="H12" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" s="8">
+      <c r="H12" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" s="11">
       <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
@@ -2430,13 +2839,13 @@
         </is>
       </c>
       <c r="G13" s="2" t="n"/>
-      <c r="H13" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" s="8">
+      <c r="H13" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" s="11">
       <c r="A14" s="2" t="n">
         <v>13</v>
       </c>
@@ -2462,13 +2871,13 @@
         </is>
       </c>
       <c r="G14" s="2" t="n"/>
-      <c r="H14" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" s="8">
+      <c r="H14" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" s="11">
       <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
@@ -2494,13 +2903,13 @@
         </is>
       </c>
       <c r="G15" s="2" t="n"/>
-      <c r="H15" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" s="8">
+      <c r="H15" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" s="11">
       <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
@@ -2518,13 +2927,13 @@
         </is>
       </c>
       <c r="G16" s="2" t="n"/>
-      <c r="H16" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" s="8">
+      <c r="H16" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" s="11">
       <c r="A17" s="2" t="n">
         <v>16</v>
       </c>
@@ -2550,13 +2959,13 @@
         </is>
       </c>
       <c r="G17" s="2" t="n"/>
-      <c r="H17" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" s="8">
+      <c r="H17" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" s="11">
       <c r="A18" s="2" t="n">
         <v>17</v>
       </c>
@@ -2576,13 +2985,13 @@
         </is>
       </c>
       <c r="G18" s="2" t="n"/>
-      <c r="H18" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" s="8">
+      <c r="H18" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" s="11">
       <c r="A19" s="2" t="n">
         <v>18</v>
       </c>
@@ -2608,13 +3017,13 @@
         </is>
       </c>
       <c r="G19" s="2" t="n"/>
-      <c r="H19" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" s="8">
+      <c r="H19" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" s="11">
       <c r="A20" s="2" t="n">
         <v>19</v>
       </c>
@@ -2640,13 +3049,13 @@
         </is>
       </c>
       <c r="G20" s="2" t="n"/>
-      <c r="H20" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" s="8">
+      <c r="H20" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" s="11">
       <c r="A21" s="2" t="n">
         <v>20</v>
       </c>
@@ -2672,13 +3081,13 @@
         </is>
       </c>
       <c r="G21" s="2" t="n"/>
-      <c r="H21" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" s="8">
+      <c r="H21" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" s="11">
       <c r="A22" s="2" t="n">
         <v>21</v>
       </c>
@@ -2704,13 +3113,13 @@
         </is>
       </c>
       <c r="G22" s="2" t="n"/>
-      <c r="H22" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" s="8">
+      <c r="H22" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" s="11">
       <c r="A23" s="2" t="n">
         <v>22</v>
       </c>
@@ -2732,13 +3141,13 @@
         </is>
       </c>
       <c r="G23" s="2" t="n"/>
-      <c r="H23" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" s="8">
+      <c r="H23" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" s="11">
       <c r="A24" s="2" t="n">
         <v>23</v>
       </c>
@@ -2768,13 +3177,13 @@
           <t>添加成功</t>
         </is>
       </c>
-      <c r="H24" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" s="8">
+      <c r="H24" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" s="11">
       <c r="A25" s="2" t="n">
         <v>24</v>
       </c>
@@ -2796,12 +3205,12 @@
         </is>
       </c>
       <c r="G25" s="2" t="n"/>
-      <c r="H25" s="19">
+      <c r="H25" s="20">
         <f>HYPERLINK("E:\UIAutomation\picture\proce_pic\商品加入购物车成功.png","Picture")</f>
         <v/>
       </c>
     </row>
-    <row r="26" s="8">
+    <row r="26" s="11">
       <c r="A26" s="2" t="n">
         <v>25</v>
       </c>
@@ -2827,13 +3236,13 @@
         </is>
       </c>
       <c r="G26" s="2" t="n"/>
-      <c r="H26" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" s="8">
+      <c r="H26" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" s="11">
       <c r="A27" s="2" t="n">
         <v>26</v>
       </c>
@@ -2859,13 +3268,13 @@
         </is>
       </c>
       <c r="G27" s="2" t="n"/>
-      <c r="H27" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" s="8">
+      <c r="H27" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" s="11">
       <c r="A28" s="2" t="n">
         <v>27</v>
       </c>
@@ -2895,13 +3304,13 @@
         </is>
       </c>
       <c r="G28" s="2" t="n"/>
-      <c r="H28" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" s="8">
+      <c r="H28" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" s="11">
       <c r="A29" s="2" t="n">
         <v>28</v>
       </c>
@@ -2921,13 +3330,13 @@
         </is>
       </c>
       <c r="G29" s="2" t="n"/>
-      <c r="H29" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" s="8">
+      <c r="H29" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" s="11">
       <c r="A30" s="2" t="n">
         <v>29</v>
       </c>
@@ -2945,13 +3354,13 @@
         </is>
       </c>
       <c r="G30" s="2" t="n"/>
-      <c r="H30" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" s="8">
+      <c r="H30" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" s="11">
       <c r="A31" s="2" t="n">
         <v>30</v>
       </c>
@@ -2977,13 +3386,13 @@
         </is>
       </c>
       <c r="G31" s="2" t="n"/>
-      <c r="H31" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="32" s="8">
+      <c r="H31" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" s="11">
       <c r="A32" s="2" t="n">
         <v>31</v>
       </c>
@@ -3003,13 +3412,13 @@
         </is>
       </c>
       <c r="G32" s="2" t="n"/>
-      <c r="H32" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="33" s="8">
+      <c r="H32" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" s="11">
       <c r="A33" s="2" t="n">
         <v>32</v>
       </c>
@@ -3039,13 +3448,13 @@
           <t>订单提交成功，请您尽快付款！</t>
         </is>
       </c>
-      <c r="H33" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="34" s="8">
+      <c r="H33" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" s="11">
       <c r="A34" s="2" t="n">
         <v>33</v>
       </c>
@@ -3067,12 +3476,12 @@
         </is>
       </c>
       <c r="G34" s="2" t="n"/>
-      <c r="H34" s="19">
+      <c r="H34" s="20">
         <f>HYPERLINK("E:\UIAutomation\picture\proce_pic\订单提交成功截图.png","Picture")</f>
         <v/>
       </c>
     </row>
-    <row r="35" s="8">
+    <row r="35" s="11">
       <c r="A35" s="2" t="n">
         <v>34</v>
       </c>
@@ -3092,13 +3501,13 @@
         </is>
       </c>
       <c r="G35" s="2" t="n"/>
-      <c r="H35" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="36" s="8">
+      <c r="H35" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" s="11">
       <c r="A36" s="2" t="n">
         <v>35</v>
       </c>
@@ -3116,13 +3525,13 @@
         </is>
       </c>
       <c r="G36" s="2" t="n"/>
-      <c r="H36" s="17" t="inlineStr">
-        <is>
-          <t>http://www.testingedu.com.cn:8000/index.php?m=Home&amp;c=Cart&amp;a=cart4&amp;order_sn=202207241519015406</t>
-        </is>
-      </c>
-    </row>
-    <row r="37" s="8">
+      <c r="H36" s="19" t="inlineStr">
+        <is>
+          <t>http://www.testingedu.com.cn:8000/index.php?m=Home&amp;c=Cart&amp;a=cart4&amp;order_sn=202207262046282429</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" s="11">
       <c r="A37" s="2" t="n">
         <v>36</v>
       </c>
@@ -3140,7 +3549,7 @@
         </is>
       </c>
       <c r="G37" s="2" t="n"/>
-      <c r="H37" s="17" t="inlineStr">
+      <c r="H37" s="19" t="inlineStr">
         <is>
           <t>订单支付-开源商城 | B2C商城 | B2B2C商城 | 三级分销 | 免费商城 | 多用户商城 | tpshop｜thinkphp shop｜TPshop 免费开源系统 | 微商城</t>
         </is>
@@ -3164,22 +3573,22 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="9.375" customWidth="1" style="8" min="1" max="1"/>
-    <col width="21.25" customWidth="1" style="8" min="2" max="2"/>
-    <col width="10.375" customWidth="1" style="8" min="3" max="3"/>
-    <col width="28.25" customWidth="1" style="8" min="4" max="4"/>
-    <col width="38.25" customWidth="1" style="8" min="5" max="5"/>
-    <col width="22.125" customWidth="1" style="8" min="6" max="6"/>
-    <col width="9.375" customWidth="1" style="8" min="7" max="8"/>
+    <col width="9.375" customWidth="1" style="11" min="1" max="1"/>
+    <col width="21.25" customWidth="1" style="11" min="2" max="2"/>
+    <col width="10.375" customWidth="1" style="11" min="3" max="3"/>
+    <col width="28.25" customWidth="1" style="11" min="4" max="4"/>
+    <col width="38.25" customWidth="1" style="11" min="5" max="5"/>
+    <col width="22.125" customWidth="1" style="11" min="6" max="6"/>
+    <col width="9.375" customWidth="1" style="11" min="7" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="8">
+    <row r="1" s="11">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>执行编号</t>
@@ -3221,7 +3630,7 @@
         </is>
       </c>
     </row>
-    <row r="2" customFormat="1" s="7">
+    <row r="2" customFormat="1" s="10">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -3239,13 +3648,13 @@
         </is>
       </c>
       <c r="G2" s="2" t="n"/>
-      <c r="H2" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" s="8">
+      <c r="H2" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" s="11">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
@@ -3256,7 +3665,7 @@
       </c>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="E3" s="8" t="inlineStr">
         <is>
           <t>http://sahitest.com/demo/index.htm</t>
         </is>
@@ -3267,13 +3676,13 @@
         </is>
       </c>
       <c r="G3" s="2" t="n"/>
-      <c r="H3" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" s="8">
+      <c r="H3" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" s="11">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
@@ -3299,13 +3708,13 @@
         </is>
       </c>
       <c r="G4" s="2" t="n"/>
-      <c r="H4" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" s="8">
+      <c r="H4" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" s="11">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
@@ -3325,14 +3734,14 @@
         </is>
       </c>
       <c r="G5" s="2" t="n"/>
-      <c r="H5" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" s="8">
-      <c r="A6" s="6" t="n">
+      <c r="H5" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" s="11">
+      <c r="A6" s="9" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -3356,14 +3765,14 @@
         </is>
       </c>
       <c r="G6" s="2" t="n"/>
-      <c r="H6" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" s="8">
-      <c r="A7" s="6" t="n">
+      <c r="H6" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" s="11">
+      <c r="A7" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -3388,14 +3797,14 @@
         </is>
       </c>
       <c r="G7" s="2" t="n"/>
-      <c r="H7" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" s="8">
-      <c r="A8" s="6" t="n">
+      <c r="H7" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" s="11">
+      <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -3414,14 +3823,14 @@
         </is>
       </c>
       <c r="G8" s="2" t="n"/>
-      <c r="H8" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" s="8">
-      <c r="A9" s="6" t="n">
+      <c r="H8" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" s="11">
+      <c r="A9" s="9" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -3446,13 +3855,13 @@
         </is>
       </c>
       <c r="G9" s="2" t="n"/>
-      <c r="H9" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" s="8">
+      <c r="H9" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" s="11">
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
@@ -3474,13 +3883,13 @@
         </is>
       </c>
       <c r="G10" s="2" t="n"/>
-      <c r="H10" s="19">
+      <c r="H10" s="20">
         <f>HYPERLINK("E:\UIAutomation\picture\proce_pic\检查截图1.png","Picture")</f>
         <v/>
       </c>
     </row>
-    <row r="11" s="8">
-      <c r="A11" s="6" t="n">
+    <row r="11" s="11">
+      <c r="A11" s="9" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -3501,14 +3910,14 @@
         </is>
       </c>
       <c r="G11" s="2" t="n"/>
-      <c r="H11" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" s="8">
-      <c r="A12" s="6" t="n">
+      <c r="H11" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" s="11">
+      <c r="A12" s="9" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -3533,14 +3942,14 @@
         </is>
       </c>
       <c r="G12" s="2" t="n"/>
-      <c r="H12" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" s="8">
-      <c r="A13" s="6" t="n">
+      <c r="H12" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" s="11">
+      <c r="A13" s="9" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -3559,14 +3968,14 @@
         </is>
       </c>
       <c r="G13" s="2" t="n"/>
-      <c r="H13" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" s="8">
-      <c r="A14" s="6" t="n">
+      <c r="H13" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" s="11">
+      <c r="A14" s="9" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -3591,13 +4000,13 @@
         </is>
       </c>
       <c r="G14" s="2" t="n"/>
-      <c r="H14" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" s="8">
+      <c r="H14" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" s="11">
       <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
@@ -3619,12 +4028,12 @@
         </is>
       </c>
       <c r="G15" s="2" t="n"/>
-      <c r="H15" s="19">
+      <c r="H15" s="20">
         <f>HYPERLINK("E:\UIAutomation\picture\proce_pic\检查截图2.png","Picture")</f>
         <v/>
       </c>
     </row>
-    <row r="16" s="8">
+    <row r="16" s="11">
       <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
@@ -3642,14 +4051,14 @@
         </is>
       </c>
       <c r="G16" s="2" t="n"/>
-      <c r="H16" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" s="8">
-      <c r="A17" s="6" t="n">
+      <c r="H16" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" s="11">
+      <c r="A17" s="9" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -3674,14 +4083,14 @@
         </is>
       </c>
       <c r="G17" s="2" t="n"/>
-      <c r="H17" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" s="8">
-      <c r="A18" s="6" t="n">
+      <c r="H17" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" s="11">
+      <c r="A18" s="9" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -3706,14 +4115,14 @@
         </is>
       </c>
       <c r="G18" s="2" t="n"/>
-      <c r="H18" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" s="8">
-      <c r="A19" s="6" t="n">
+      <c r="H18" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" s="11">
+      <c r="A19" s="9" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -3732,14 +4141,14 @@
         </is>
       </c>
       <c r="G19" s="2" t="n"/>
-      <c r="H19" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" s="8">
-      <c r="A20" s="6" t="n">
+      <c r="H19" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" s="11">
+      <c r="A20" s="9" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -3764,13 +4173,13 @@
         </is>
       </c>
       <c r="G20" s="2" t="n"/>
-      <c r="H20" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" s="8">
+      <c r="H20" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" s="11">
       <c r="A21" s="2" t="n">
         <v>20</v>
       </c>
@@ -3792,12 +4201,12 @@
         </is>
       </c>
       <c r="G21" s="2" t="n"/>
-      <c r="H21" s="19">
+      <c r="H21" s="20">
         <f>HYPERLINK("E:\UIAutomation\picture\proce_pic\检查截图3.png","Picture")</f>
         <v/>
       </c>
     </row>
-    <row r="22" s="8">
+    <row r="22" s="11">
       <c r="A22" s="2" t="n">
         <v>21</v>
       </c>
@@ -3815,14 +4224,14 @@
         </is>
       </c>
       <c r="G22" s="2" t="n"/>
-      <c r="H22" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" s="8">
-      <c r="A23" s="6" t="n">
+      <c r="H22" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" s="11">
+      <c r="A23" s="9" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -3847,14 +4256,14 @@
         </is>
       </c>
       <c r="G23" s="2" t="n"/>
-      <c r="H23" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" s="8">
-      <c r="A24" s="6" t="n">
+      <c r="H23" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" s="11">
+      <c r="A24" s="9" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -3879,14 +4288,14 @@
         </is>
       </c>
       <c r="G24" s="2" t="n"/>
-      <c r="H24" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" s="8">
-      <c r="A25" s="6" t="n">
+      <c r="H24" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" s="11">
+      <c r="A25" s="9" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -3905,14 +4314,14 @@
         </is>
       </c>
       <c r="G25" s="2" t="n"/>
-      <c r="H25" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" s="8">
-      <c r="A26" s="6" t="n">
+      <c r="H25" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" s="11">
+      <c r="A26" s="9" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -3937,13 +4346,13 @@
         </is>
       </c>
       <c r="G26" s="2" t="n"/>
-      <c r="H26" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" s="8">
+      <c r="H26" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" s="11">
       <c r="A27" s="2" t="n">
         <v>26</v>
       </c>
@@ -3965,7 +4374,7 @@
         </is>
       </c>
       <c r="G27" s="2" t="n"/>
-      <c r="H27" s="19">
+      <c r="H27" s="20">
         <f>HYPERLINK("E:\UIAutomation\picture\proce_pic\检查截图4.png","Picture")</f>
         <v/>
       </c>
@@ -3987,22 +4396,22 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="9.375" customWidth="1" style="7" min="1" max="1"/>
-    <col width="10.875" customWidth="1" style="7" min="2" max="2"/>
-    <col width="10.375" customWidth="1" style="7" min="3" max="3"/>
-    <col width="22.625" customWidth="1" style="7" min="4" max="4"/>
-    <col width="38.25" customWidth="1" style="7" min="5" max="5"/>
-    <col width="21" customWidth="1" style="7" min="6" max="6"/>
-    <col width="9.375" customWidth="1" style="7" min="7" max="8"/>
-    <col width="9" customWidth="1" style="7" min="9" max="16384"/>
+    <col width="9.375" customWidth="1" style="10" min="1" max="1"/>
+    <col width="10.875" customWidth="1" style="10" min="2" max="2"/>
+    <col width="10.375" customWidth="1" style="10" min="3" max="3"/>
+    <col width="22.625" customWidth="1" style="10" min="4" max="4"/>
+    <col width="38.25" customWidth="1" style="10" min="5" max="5"/>
+    <col width="21" customWidth="1" style="10" min="6" max="6"/>
+    <col width="9.375" customWidth="1" style="10" min="7" max="8"/>
+    <col width="9" customWidth="1" style="10" min="9" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" s="8">
+    <row r="1" s="11">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>执行编号</t>
@@ -4044,7 +4453,7 @@
         </is>
       </c>
     </row>
-    <row r="2" s="8">
+    <row r="2" s="11">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -4062,13 +4471,13 @@
         </is>
       </c>
       <c r="G2" s="2" t="n"/>
-      <c r="H2" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" s="8">
+      <c r="H2" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" s="11">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
@@ -4079,7 +4488,7 @@
       </c>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="E3" s="8" t="inlineStr">
         <is>
           <t>http://sahitest.com/demo/index.htm</t>
         </is>
@@ -4090,13 +4499,13 @@
         </is>
       </c>
       <c r="G3" s="2" t="n"/>
-      <c r="H3" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" s="8">
+      <c r="H3" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" s="11">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
@@ -4122,13 +4531,13 @@
         </is>
       </c>
       <c r="G4" s="2" t="n"/>
-      <c r="H4" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" s="8">
+      <c r="H4" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" s="11">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
@@ -4148,14 +4557,14 @@
         </is>
       </c>
       <c r="G5" s="2" t="n"/>
-      <c r="H5" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" s="8">
-      <c r="A6" s="6" t="n">
+      <c r="H5" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" s="11">
+      <c r="A6" s="9" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -4186,14 +4595,14 @@
           <t>index</t>
         </is>
       </c>
-      <c r="H6" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" s="8">
-      <c r="A7" s="6" t="n">
+      <c r="H6" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" s="11">
+      <c r="A7" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -4212,14 +4621,14 @@
         </is>
       </c>
       <c r="G7" s="2" t="n"/>
-      <c r="H7" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" s="8">
-      <c r="A8" s="6" t="n">
+      <c r="H7" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" s="11">
+      <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -4252,14 +4661,14 @@
           <t>text</t>
         </is>
       </c>
-      <c r="H8" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" s="8">
-      <c r="A9" s="6" t="n">
+      <c r="H8" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" s="11">
+      <c r="A9" s="9" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -4278,14 +4687,14 @@
         </is>
       </c>
       <c r="G9" s="2" t="n"/>
-      <c r="H9" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" s="8">
-      <c r="A10" s="6" t="n">
+      <c r="H9" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" s="11">
+      <c r="A10" s="9" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -4318,14 +4727,14 @@
           <t>value</t>
         </is>
       </c>
-      <c r="H10" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" s="8">
-      <c r="A11" s="6" t="n">
+      <c r="H10" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" s="11">
+      <c r="A11" s="9" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -4344,14 +4753,14 @@
         </is>
       </c>
       <c r="G11" s="2" t="n"/>
-      <c r="H11" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" s="8">
-      <c r="A12" s="6" t="n">
+      <c r="H11" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" s="11">
+      <c r="A12" s="9" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -4382,14 +4791,14 @@
           <t>index</t>
         </is>
       </c>
-      <c r="H12" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" s="8">
-      <c r="A13" s="6" t="n">
+      <c r="H12" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" s="11">
+      <c r="A13" s="9" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -4408,14 +4817,14 @@
         </is>
       </c>
       <c r="G13" s="2" t="n"/>
-      <c r="H13" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" s="8">
-      <c r="A14" s="6" t="n">
+      <c r="H13" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" s="11">
+      <c r="A14" s="9" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -4448,14 +4857,14 @@
           <t>text</t>
         </is>
       </c>
-      <c r="H14" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" s="8">
-      <c r="A15" s="6" t="n">
+      <c r="H14" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" s="11">
+      <c r="A15" s="9" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -4474,14 +4883,14 @@
         </is>
       </c>
       <c r="G15" s="2" t="n"/>
-      <c r="H15" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" s="8">
-      <c r="A16" s="6" t="n">
+      <c r="H15" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" s="11">
+      <c r="A16" s="9" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -4514,14 +4923,14 @@
           <t>value</t>
         </is>
       </c>
-      <c r="H16" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" s="8">
-      <c r="A17" s="6" t="n">
+      <c r="H16" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" s="11">
+      <c r="A17" s="9" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -4540,13 +4949,13 @@
         </is>
       </c>
       <c r="G17" s="2" t="n"/>
-      <c r="H17" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" s="8">
+      <c r="H17" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" s="11">
       <c r="A18" s="2" t="n">
         <v>17</v>
       </c>
@@ -4580,13 +4989,13 @@
           <t>text</t>
         </is>
       </c>
-      <c r="H18" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" s="8">
+      <c r="H18" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" s="11">
       <c r="A19" s="2" t="n">
         <v>18</v>
       </c>
@@ -4608,7 +5017,7 @@
         </is>
       </c>
       <c r="G19" s="2" t="n"/>
-      <c r="H19" s="19">
+      <c r="H19" s="20">
         <f>HYPERLINK("E:\UIAutomation\picture\proce_pic\检查下拉选择截图.png","Picture")</f>
         <v/>
       </c>
@@ -4635,16 +5044,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelRow="6" outlineLevelCol="0"/>
   <cols>
-    <col width="9.375" customWidth="1" style="8" min="1" max="1"/>
-    <col width="10.875" customWidth="1" style="8" min="2" max="2"/>
-    <col width="10.375" customWidth="1" style="8" min="3" max="3"/>
-    <col width="28.25" customWidth="1" style="8" min="4" max="4"/>
-    <col width="38.25" customWidth="1" style="8" min="5" max="5"/>
-    <col width="19.875" customWidth="1" style="8" min="6" max="6"/>
-    <col width="9.375" customWidth="1" style="8" min="7" max="8"/>
+    <col width="9.375" customWidth="1" style="11" min="1" max="1"/>
+    <col width="10.875" customWidth="1" style="11" min="2" max="2"/>
+    <col width="10.375" customWidth="1" style="11" min="3" max="3"/>
+    <col width="28.25" customWidth="1" style="11" min="4" max="4"/>
+    <col width="38.25" customWidth="1" style="11" min="5" max="5"/>
+    <col width="19.875" customWidth="1" style="11" min="6" max="6"/>
+    <col width="9.375" customWidth="1" style="11" min="7" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="8">
+    <row r="1" s="11">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>执行编号</t>
@@ -4686,7 +5095,7 @@
         </is>
       </c>
     </row>
-    <row r="2" s="8">
+    <row r="2" s="11">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -4704,13 +5113,13 @@
         </is>
       </c>
       <c r="G2" s="2" t="n"/>
-      <c r="H2" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" s="8">
+      <c r="H2" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" s="11">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
@@ -4721,7 +5130,7 @@
       </c>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="E3" s="8" t="inlineStr">
         <is>
           <t>http://sahitest.com/demo/index.htm</t>
         </is>
@@ -4732,13 +5141,13 @@
         </is>
       </c>
       <c r="G3" s="2" t="n"/>
-      <c r="H3" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" s="8">
+      <c r="H3" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" s="11">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
@@ -4764,13 +5173,13 @@
         </is>
       </c>
       <c r="G4" s="2" t="n"/>
-      <c r="H4" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" s="8">
+      <c r="H4" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" s="11">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
@@ -4790,14 +5199,14 @@
         </is>
       </c>
       <c r="G5" s="2" t="n"/>
-      <c r="H5" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" s="8">
-      <c r="A6" s="6" t="n">
+      <c r="H5" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" s="11">
+      <c r="A6" s="9" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -4824,14 +5233,14 @@
         </is>
       </c>
       <c r="G6" s="2" t="n"/>
-      <c r="H6" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" s="8">
-      <c r="A7" s="6" t="n">
+      <c r="H6" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" s="11">
+      <c r="A7" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -4852,7 +5261,7 @@
         </is>
       </c>
       <c r="G7" s="2" t="n"/>
-      <c r="H7" s="19">
+      <c r="H7" s="20">
         <f>HYPERLINK("E:\UIAutomation\picture\proce_pic\点击一组box中的第3个.png","Picture")</f>
         <v/>
       </c>
@@ -4873,22 +5282,22 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="9.375" customWidth="1" style="8" min="1" max="1"/>
-    <col width="15" customWidth="1" style="8" min="2" max="2"/>
-    <col width="10.375" customWidth="1" style="8" min="3" max="3"/>
-    <col width="27.125" customWidth="1" style="8" min="4" max="4"/>
-    <col width="38.25" customWidth="1" style="8" min="5" max="5"/>
-    <col width="36.5" customWidth="1" style="8" min="6" max="6"/>
-    <col width="9.375" customWidth="1" style="8" min="7" max="8"/>
+    <col width="9.375" customWidth="1" style="11" min="1" max="1"/>
+    <col width="15" customWidth="1" style="11" min="2" max="2"/>
+    <col width="10.375" customWidth="1" style="11" min="3" max="3"/>
+    <col width="27.125" customWidth="1" style="11" min="4" max="4"/>
+    <col width="38.25" customWidth="1" style="11" min="5" max="5"/>
+    <col width="36.5" customWidth="1" style="11" min="6" max="6"/>
+    <col width="9.375" customWidth="1" style="11" min="7" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="8">
+    <row r="1" s="11">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>执行编号</t>
@@ -4930,7 +5339,7 @@
         </is>
       </c>
     </row>
-    <row r="2" s="8">
+    <row r="2" s="11">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -4948,13 +5357,13 @@
         </is>
       </c>
       <c r="G2" s="2" t="n"/>
-      <c r="H2" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" s="8">
+      <c r="H2" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" s="11">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
@@ -4965,7 +5374,7 @@
       </c>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>http://sahitest.com/demo/index.htm</t>
         </is>
@@ -4976,13 +5385,13 @@
         </is>
       </c>
       <c r="G3" s="2" t="n"/>
-      <c r="H3" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" s="8">
+      <c r="H3" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" s="11">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
@@ -5008,13 +5417,13 @@
         </is>
       </c>
       <c r="G4" s="2" t="n"/>
-      <c r="H4" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" s="8">
+      <c r="H4" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" s="11">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
@@ -5040,13 +5449,13 @@
         </is>
       </c>
       <c r="G5" s="2" t="n"/>
-      <c r="H5" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" s="8">
+      <c r="H5" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" s="11">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
@@ -5076,13 +5485,13 @@
         </is>
       </c>
       <c r="G6" s="2" t="n"/>
-      <c r="H6" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" s="8">
+      <c r="H6" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" s="11">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
@@ -5108,13 +5517,13 @@
         </is>
       </c>
       <c r="G7" s="2" t="n"/>
-      <c r="H7" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" s="8">
+      <c r="H7" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" s="11">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
@@ -5134,13 +5543,13 @@
         </is>
       </c>
       <c r="G8" s="2" t="n"/>
-      <c r="H8" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" s="8">
+      <c r="H8" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" s="11">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
@@ -5155,7 +5564,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n"/>
-      <c r="E9" s="4" t="n"/>
+      <c r="E9" s="7" t="n"/>
       <c r="F9" s="2" t="inlineStr">
         <is>
           <t>检查弹出框内容</t>
@@ -5166,13 +5575,13 @@
           <t>哈哈哈</t>
         </is>
       </c>
-      <c r="H9" s="18" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" s="8">
+      <c r="H9" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" s="11">
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
@@ -5194,12 +5603,12 @@
         </is>
       </c>
       <c r="G10" s="2" t="n"/>
-      <c r="H10" s="19">
+      <c r="H10" s="20">
         <f>HYPERLINK("E:\UIAutomation\picture\proce_pic\关闭第一个alert弹出框.png","Picture")</f>
         <v/>
       </c>
     </row>
-    <row r="11" s="8">
+    <row r="11" s="11">
       <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
@@ -5225,13 +5634,13 @@
         </is>
       </c>
       <c r="G11" s="2" t="n"/>
-      <c r="H11" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" s="8">
+      <c r="H11" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" s="11">
       <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
@@ -5251,13 +5660,13 @@
         </is>
       </c>
       <c r="G12" s="2" t="n"/>
-      <c r="H12" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" s="8">
+      <c r="H12" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" s="11">
       <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
@@ -5272,7 +5681,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n"/>
-      <c r="E13" s="4" t="n"/>
+      <c r="E13" s="7" t="n"/>
       <c r="F13" s="2" t="inlineStr">
         <is>
           <t>检查弹出框内容</t>
@@ -5283,13 +5692,13 @@
           <t>You</t>
         </is>
       </c>
-      <c r="H13" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" s="8">
+      <c r="H13" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" s="11">
       <c r="A14" s="2" t="n">
         <v>13</v>
       </c>
@@ -5315,13 +5724,13 @@
         </is>
       </c>
       <c r="G14" s="2" t="n"/>
-      <c r="H14" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" s="8">
+      <c r="H14" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" s="11">
       <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
@@ -5341,13 +5750,13 @@
         </is>
       </c>
       <c r="G15" s="2" t="n"/>
-      <c r="H15" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" s="8">
+      <c r="H15" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" s="11">
       <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
@@ -5362,7 +5771,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n"/>
-      <c r="E16" s="4" t="n"/>
+      <c r="E16" s="7" t="n"/>
       <c r="F16" s="2" t="inlineStr">
         <is>
           <t>检查弹出框内容</t>
@@ -5373,13 +5782,13 @@
           <t>Produto</t>
         </is>
       </c>
-      <c r="H16" s="17" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" s="8">
+      <c r="H16" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" s="11">
       <c r="A17" s="2" t="n">
         <v>16</v>
       </c>
@@ -5401,7 +5810,7 @@
         </is>
       </c>
       <c r="G17" s="2" t="n"/>
-      <c r="H17" s="19">
+      <c r="H17" s="20">
         <f>HYPERLINK("E:\UIAutomation\picture\proce_pic\关闭第三个alert弹出框.png","Picture")</f>
         <v/>
       </c>
@@ -5412,4 +5821,285 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="A1:H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="30" customHeight="1" outlineLevelCol="0"/>
+  <cols>
+    <col width="9.375" customWidth="1" style="11" min="1" max="1"/>
+    <col width="15" customWidth="1" style="11" min="2" max="2"/>
+    <col width="10.375" customWidth="1" style="11" min="3" max="3"/>
+    <col width="27.125" customWidth="1" style="11" min="4" max="4"/>
+    <col width="38.25" customWidth="1" style="11" min="5" max="5"/>
+    <col width="36.5" customWidth="1" style="11" min="6" max="6"/>
+    <col width="9.375" customWidth="1" style="11" min="7" max="8"/>
+    <col width="8.875" customWidth="1" style="11" min="9" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="11">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>执行编号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>执行操作</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>定位方法</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>定位路径</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>输入文本</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>步骤描述</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>预期结果</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>实际结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" s="11">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>新建标签页</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>新建浏览器标签页</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" s="11">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>等待</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>等待2秒</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" s="11">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>访问</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>https://www.jd.com/</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>访问京东商城</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" s="11">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>等待</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>等待2秒</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" s="11">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>新建标签页</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>新建浏览器标签页</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" s="11">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>等待</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>等待2秒</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" s="11">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>进入窗口</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>切换回京东商城的窗口</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="n"/>
+      <c r="H8" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" s="11">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>截图</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>截图京东首页</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>截图验证</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="n"/>
+      <c r="H9" s="20">
+        <f>HYPERLINK("E:\UIAutomation\picture\proce_pic\截图京东首页.png","Picture")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" tooltip="https://www.jd.com/" display="https://www.jd.com/" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>